--- a/data/Ward_Age/大田区2022年1月_rev.xlsx
+++ b/data/Ward_Age/大田区2022年1月_rev.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E032379-FAED-8541-A663-05AEF46CCB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA840EBF-CC63-3649-A138-2F51B2F149F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="22540" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="47360" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R04.01大田全域" sheetId="13" r:id="rId1"/>
@@ -20,268 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
-    <t>大森東　一丁目</t>
-  </si>
-  <si>
-    <t>大森東　二丁目</t>
-  </si>
-  <si>
-    <t>大森東　三丁目</t>
-  </si>
-  <si>
-    <t>大森東　四丁目</t>
-  </si>
-  <si>
-    <t>大森東　五丁目</t>
-  </si>
-  <si>
-    <t>大森南　一丁目</t>
-  </si>
-  <si>
-    <t>大森南　二丁目</t>
-  </si>
-  <si>
-    <t>大森南　三丁目</t>
-  </si>
-  <si>
-    <t>大森南　四丁目</t>
-  </si>
-  <si>
-    <t>大森南　五丁目</t>
-  </si>
-  <si>
-    <t>大森中　一丁目</t>
-  </si>
-  <si>
-    <t>大森中　二丁目</t>
-  </si>
-  <si>
-    <t>大森中　三丁目</t>
-  </si>
-  <si>
-    <t>大森西　一丁目</t>
-  </si>
-  <si>
-    <t>大森西　二丁目</t>
-  </si>
-  <si>
-    <t>大森西　三丁目</t>
-  </si>
-  <si>
-    <t>大森西　四丁目</t>
-  </si>
-  <si>
-    <t>大森西　五丁目</t>
-  </si>
-  <si>
-    <t>大森西　六丁目</t>
-  </si>
-  <si>
-    <t>大森西　七丁目</t>
-  </si>
-  <si>
-    <t>大森北　一丁目</t>
-  </si>
-  <si>
-    <t>大森北　二丁目</t>
-  </si>
-  <si>
-    <t>大森北　三丁目</t>
-  </si>
-  <si>
-    <t>大森北　四丁目</t>
-  </si>
-  <si>
-    <t>大森北　五丁目</t>
-  </si>
-  <si>
-    <t>大森北　六丁目</t>
-  </si>
-  <si>
-    <t>大森本町一丁目</t>
-  </si>
-  <si>
-    <t>大森本町二丁目</t>
-  </si>
-  <si>
-    <t>平和島　一丁目</t>
-  </si>
-  <si>
-    <t>平和島　二丁目</t>
-  </si>
-  <si>
-    <t>平和島　三丁目</t>
-  </si>
-  <si>
-    <t>平和島　四丁目</t>
-  </si>
-  <si>
-    <t>平和島　五丁目</t>
-  </si>
-  <si>
-    <t>平和島　六丁目</t>
-  </si>
-  <si>
-    <t>昭和島　一丁目</t>
-  </si>
-  <si>
-    <t>昭和島　二丁目</t>
-  </si>
-  <si>
-    <t>山　王　一丁目</t>
-  </si>
-  <si>
-    <t>山　王　二丁目</t>
-  </si>
-  <si>
-    <t>山　王　三丁目</t>
-  </si>
-  <si>
-    <t>山　王　四丁目</t>
-  </si>
-  <si>
     <t>平和の森公園</t>
-  </si>
-  <si>
-    <t>東馬込　一丁目</t>
-  </si>
-  <si>
-    <t>東馬込　二丁目</t>
-  </si>
-  <si>
-    <t>南馬込　一丁目</t>
-  </si>
-  <si>
-    <t>南馬込　二丁目</t>
-  </si>
-  <si>
-    <t>南馬込　三丁目</t>
-  </si>
-  <si>
-    <t>南馬込　四丁目</t>
-  </si>
-  <si>
-    <t>南馬込　五丁目</t>
-  </si>
-  <si>
-    <t>南馬込　六丁目</t>
-  </si>
-  <si>
-    <t>中馬込　一丁目</t>
-  </si>
-  <si>
-    <t>中馬込　二丁目</t>
-  </si>
-  <si>
-    <t>中馬込　三丁目</t>
-  </si>
-  <si>
-    <t>西馬込　一丁目</t>
-  </si>
-  <si>
-    <t>西馬込　二丁目</t>
-  </si>
-  <si>
-    <t>北馬込　一丁目</t>
-  </si>
-  <si>
-    <t>北馬込　二丁目</t>
-  </si>
-  <si>
-    <t>中　央　一丁目</t>
-  </si>
-  <si>
-    <t>中　央　二丁目</t>
-  </si>
-  <si>
-    <t>中　央　三丁目</t>
-  </si>
-  <si>
-    <t>中　央　四丁目</t>
-  </si>
-  <si>
-    <t>中　央　五丁目</t>
-  </si>
-  <si>
-    <t>中　央　六丁目</t>
-  </si>
-  <si>
-    <t>中　央　七丁目</t>
-  </si>
-  <si>
-    <t>中　央　八丁目</t>
-  </si>
-  <si>
-    <t>池　上　一丁目</t>
-  </si>
-  <si>
-    <t>池　上　二丁目</t>
-  </si>
-  <si>
-    <t>池　上　三丁目</t>
-  </si>
-  <si>
-    <t>池　上　四丁目</t>
-  </si>
-  <si>
-    <t>池　上　五丁目</t>
-  </si>
-  <si>
-    <t>池　上　六丁目</t>
-  </si>
-  <si>
-    <t>池　上　七丁目</t>
-  </si>
-  <si>
-    <t>池　上　八丁目</t>
-  </si>
-  <si>
-    <t>京浜島　一丁目</t>
-  </si>
-  <si>
-    <t>京浜島　二丁目</t>
-  </si>
-  <si>
-    <t>京浜島　三丁目</t>
-  </si>
-  <si>
-    <t>東　海　一丁目</t>
-  </si>
-  <si>
-    <t>東　海　二丁目</t>
-  </si>
-  <si>
-    <t>東　海　三丁目</t>
-  </si>
-  <si>
-    <t>東　海　四丁目</t>
-  </si>
-  <si>
-    <t>東　海　五丁目</t>
-  </si>
-  <si>
-    <t>東　海　六丁目</t>
-  </si>
-  <si>
-    <t>城南島　一丁目</t>
-  </si>
-  <si>
-    <t>城南島　二丁目</t>
-  </si>
-  <si>
-    <t>城南島　三丁目</t>
-  </si>
-  <si>
-    <t>城南島　四丁目</t>
-  </si>
-  <si>
-    <t>城南島　五丁目</t>
-  </si>
-  <si>
-    <t>城南島　六丁目</t>
-  </si>
-  <si>
-    <t>城南島　七丁目</t>
   </si>
   <si>
     <t>東　嶺　町</t>
@@ -299,382 +38,643 @@
     <t>田園調布本町</t>
   </si>
   <si>
-    <t>田園調布一丁目</t>
-  </si>
-  <si>
-    <t>田園調布二丁目</t>
-  </si>
-  <si>
-    <t>田園調布三丁目</t>
-  </si>
-  <si>
-    <t>田園調布四丁目</t>
-  </si>
-  <si>
-    <t>田園調布五丁目</t>
-  </si>
-  <si>
     <t>雪谷大町</t>
-  </si>
-  <si>
-    <t>鵜の木　一丁目</t>
-  </si>
-  <si>
-    <t>鵜の木　二丁目</t>
-  </si>
-  <si>
-    <t>鵜の木　三丁目</t>
-  </si>
-  <si>
-    <t>千　鳥　一丁目</t>
-  </si>
-  <si>
-    <t>千　鳥　二丁目</t>
-  </si>
-  <si>
-    <t>千　鳥　三丁目</t>
-  </si>
-  <si>
-    <t>南久が原一丁目</t>
-  </si>
-  <si>
-    <t>南久が原二丁目</t>
-  </si>
-  <si>
-    <t>久が原　一丁目</t>
-  </si>
-  <si>
-    <t>久が原　二丁目</t>
-  </si>
-  <si>
-    <t>久が原　三丁目</t>
-  </si>
-  <si>
-    <t>久が原　四丁目</t>
-  </si>
-  <si>
-    <t>久が原　五丁目</t>
-  </si>
-  <si>
-    <t>久が原　六丁目</t>
-  </si>
-  <si>
-    <t>南千束　一丁目</t>
-  </si>
-  <si>
-    <t>南千束　二丁目</t>
-  </si>
-  <si>
-    <t>南千束　三丁目</t>
-  </si>
-  <si>
-    <t>北千束　一丁目</t>
-  </si>
-  <si>
-    <t>北千束　二丁目</t>
-  </si>
-  <si>
-    <t>北千束　三丁目</t>
-  </si>
-  <si>
-    <t>石川町　一丁目</t>
-  </si>
-  <si>
-    <t>石川町　二丁目</t>
-  </si>
-  <si>
-    <t>仲池上　一丁目</t>
-  </si>
-  <si>
-    <t>仲池上　二丁目</t>
-  </si>
-  <si>
-    <t>東雪谷　一丁目</t>
-  </si>
-  <si>
-    <t>東雪谷　二丁目</t>
-  </si>
-  <si>
-    <t>東雪谷　三丁目</t>
-  </si>
-  <si>
-    <t>東雪谷　四丁目</t>
-  </si>
-  <si>
-    <t>東雪谷　五丁目</t>
-  </si>
-  <si>
-    <t>南雪谷　一丁目</t>
-  </si>
-  <si>
-    <t>南雪谷　二丁目</t>
-  </si>
-  <si>
-    <t>南雪谷　三丁目</t>
-  </si>
-  <si>
-    <t>南雪谷　四丁目</t>
-  </si>
-  <si>
-    <t>南雪谷　五丁目</t>
-  </si>
-  <si>
-    <t>上池台　一丁目</t>
-  </si>
-  <si>
-    <t>上池台　二丁目</t>
-  </si>
-  <si>
-    <t>上池台　三丁目</t>
-  </si>
-  <si>
-    <t>上池台　四丁目</t>
-  </si>
-  <si>
-    <t>上池台　五丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　一丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　二丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　三丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　四丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　五丁目</t>
-  </si>
-  <si>
-    <t>東糀谷　六丁目</t>
-  </si>
-  <si>
-    <t>西糀谷　一丁目</t>
-  </si>
-  <si>
-    <t>西糀谷　二丁目</t>
-  </si>
-  <si>
-    <t>西糀谷　三丁目</t>
-  </si>
-  <si>
-    <t>西糀谷　四丁目</t>
-  </si>
-  <si>
-    <t>北糀谷　一丁目</t>
-  </si>
-  <si>
-    <t>北糀谷　二丁目</t>
   </si>
   <si>
     <t>羽田旭町</t>
   </si>
   <si>
-    <t>羽　田　一丁目</t>
-  </si>
-  <si>
-    <t>羽　田　二丁目</t>
-  </si>
-  <si>
-    <t>羽　田　三丁目</t>
-  </si>
-  <si>
-    <t>羽　田　四丁目</t>
-  </si>
-  <si>
-    <t>羽　田　五丁目</t>
-  </si>
-  <si>
-    <t>羽　田　六丁目</t>
-  </si>
-  <si>
-    <t>本羽田　一丁目</t>
-  </si>
-  <si>
-    <t>本羽田　二丁目</t>
-  </si>
-  <si>
-    <t>本羽田　三丁目</t>
-  </si>
-  <si>
-    <t>羽田空港一丁目</t>
-  </si>
-  <si>
-    <t>羽田空港二丁目</t>
-  </si>
-  <si>
-    <t>羽田空港三丁目</t>
-  </si>
-  <si>
-    <t>萩　中　一丁目</t>
-  </si>
-  <si>
-    <t>萩　中　二丁目</t>
-  </si>
-  <si>
-    <t>萩　中　三丁目</t>
-  </si>
-  <si>
-    <t>東六郷　一丁目</t>
-  </si>
-  <si>
-    <t>東六郷　二丁目</t>
-  </si>
-  <si>
-    <t>東六郷　三丁目</t>
-  </si>
-  <si>
-    <t>西六郷　一丁目</t>
-  </si>
-  <si>
-    <t>西六郷　二丁目</t>
-  </si>
-  <si>
-    <t>西六郷　三丁目</t>
-  </si>
-  <si>
-    <t>西六郷　四丁目</t>
-  </si>
-  <si>
-    <t>南六郷　一丁目</t>
-  </si>
-  <si>
-    <t>南六郷　二丁目</t>
-  </si>
-  <si>
-    <t>南六郷　三丁目</t>
-  </si>
-  <si>
-    <t>仲六郷　一丁目</t>
-  </si>
-  <si>
-    <t>仲六郷　二丁目</t>
-  </si>
-  <si>
-    <t>仲六郷　三丁目</t>
-  </si>
-  <si>
-    <t>仲六郷　四丁目</t>
-  </si>
-  <si>
-    <t>下丸子　一丁目</t>
-  </si>
-  <si>
-    <t>下丸子　二丁目</t>
-  </si>
-  <si>
-    <t>下丸子　三丁目</t>
-  </si>
-  <si>
-    <t>下丸子　四丁目</t>
-  </si>
-  <si>
-    <t>矢　口　一丁目</t>
-  </si>
-  <si>
-    <t>矢　口　二丁目</t>
-  </si>
-  <si>
-    <t>矢　口　三丁目</t>
-  </si>
-  <si>
-    <t>東矢口　一丁目</t>
-  </si>
-  <si>
-    <t>東矢口　二丁目</t>
-  </si>
-  <si>
-    <t>東矢口　三丁目</t>
-  </si>
-  <si>
-    <t>多摩川　一丁目</t>
-  </si>
-  <si>
-    <t>多摩川　二丁目</t>
-  </si>
-  <si>
-    <t>東蒲田　一丁目</t>
-  </si>
-  <si>
-    <t>東蒲田　二丁目</t>
-  </si>
-  <si>
-    <t>南蒲田　一丁目</t>
-  </si>
-  <si>
-    <t>南蒲田　二丁目</t>
-  </si>
-  <si>
-    <t>南蒲田　三丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　一丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　二丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　三丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　四丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　五丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　六丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　七丁目</t>
-  </si>
-  <si>
-    <t>西蒲田　八丁目</t>
-  </si>
-  <si>
-    <t>蒲　田　一丁目</t>
-  </si>
-  <si>
-    <t>蒲　田　二丁目</t>
-  </si>
-  <si>
-    <t>蒲　田　三丁目</t>
-  </si>
-  <si>
-    <t>蒲　田　四丁目</t>
-  </si>
-  <si>
-    <t>蒲　田　五丁目</t>
-  </si>
-  <si>
-    <t>蒲田本町一丁目</t>
-  </si>
-  <si>
-    <t>蒲田本町二丁目</t>
-  </si>
-  <si>
-    <t>新蒲田　一丁目</t>
-  </si>
-  <si>
-    <t>新蒲田　二丁目</t>
-  </si>
-  <si>
-    <t>新蒲田　三丁目</t>
-  </si>
-  <si>
     <t>ふるさとの浜辺</t>
   </si>
   <si>
-    <t>令和島　一丁目</t>
+    <t>年齢</t>
   </si>
   <si>
-    <t>令和島　二丁目</t>
+    <t>大森東　１丁目</t>
   </si>
   <si>
-    <t>年齢</t>
+    <t>大森南　１丁目</t>
+  </si>
+  <si>
+    <t>大森中　１丁目</t>
+  </si>
+  <si>
+    <t>大森西　１丁目</t>
+  </si>
+  <si>
+    <t>大森北　１丁目</t>
+  </si>
+  <si>
+    <t>大森本町１丁目</t>
+  </si>
+  <si>
+    <t>平和島　１丁目</t>
+  </si>
+  <si>
+    <t>昭和島　１丁目</t>
+  </si>
+  <si>
+    <t>山　王　１丁目</t>
+  </si>
+  <si>
+    <t>東馬込　１丁目</t>
+  </si>
+  <si>
+    <t>南馬込　１丁目</t>
+  </si>
+  <si>
+    <t>中馬込　１丁目</t>
+  </si>
+  <si>
+    <t>西馬込　１丁目</t>
+  </si>
+  <si>
+    <t>北馬込　１丁目</t>
+  </si>
+  <si>
+    <t>中　央　１丁目</t>
+  </si>
+  <si>
+    <t>池　上　１丁目</t>
+  </si>
+  <si>
+    <t>京浜島　１丁目</t>
+  </si>
+  <si>
+    <t>東　海　１丁目</t>
+  </si>
+  <si>
+    <t>城南島　１丁目</t>
+  </si>
+  <si>
+    <t>田園調布１丁目</t>
+  </si>
+  <si>
+    <t>鵜の木　１丁目</t>
+  </si>
+  <si>
+    <t>千　鳥　１丁目</t>
+  </si>
+  <si>
+    <t>南久が原１丁目</t>
+  </si>
+  <si>
+    <t>久が原　１丁目</t>
+  </si>
+  <si>
+    <t>南千束　１丁目</t>
+  </si>
+  <si>
+    <t>北千束　１丁目</t>
+  </si>
+  <si>
+    <t>石川町　１丁目</t>
+  </si>
+  <si>
+    <t>仲池上　１丁目</t>
+  </si>
+  <si>
+    <t>東雪谷　１丁目</t>
+  </si>
+  <si>
+    <t>南雪谷　１丁目</t>
+  </si>
+  <si>
+    <t>上池台　１丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　１丁目</t>
+  </si>
+  <si>
+    <t>西糀谷　１丁目</t>
+  </si>
+  <si>
+    <t>北糀谷　１丁目</t>
+  </si>
+  <si>
+    <t>羽　田　１丁目</t>
+  </si>
+  <si>
+    <t>本羽田　１丁目</t>
+  </si>
+  <si>
+    <t>羽田空港１丁目</t>
+  </si>
+  <si>
+    <t>萩　中　１丁目</t>
+  </si>
+  <si>
+    <t>東六郷　１丁目</t>
+  </si>
+  <si>
+    <t>西六郷　１丁目</t>
+  </si>
+  <si>
+    <t>南六郷　１丁目</t>
+  </si>
+  <si>
+    <t>仲六郷　１丁目</t>
+  </si>
+  <si>
+    <t>下丸子　１丁目</t>
+  </si>
+  <si>
+    <t>矢　口　１丁目</t>
+  </si>
+  <si>
+    <t>東矢口　１丁目</t>
+  </si>
+  <si>
+    <t>多摩川　１丁目</t>
+  </si>
+  <si>
+    <t>東蒲田　１丁目</t>
+  </si>
+  <si>
+    <t>南蒲田　１丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　１丁目</t>
+  </si>
+  <si>
+    <t>蒲　田　１丁目</t>
+  </si>
+  <si>
+    <t>蒲田本町１丁目</t>
+  </si>
+  <si>
+    <t>新蒲田　１丁目</t>
+  </si>
+  <si>
+    <t>令和島　１丁目</t>
+  </si>
+  <si>
+    <t>大森東　２丁目</t>
+  </si>
+  <si>
+    <t>大森南　２丁目</t>
+  </si>
+  <si>
+    <t>大森中　２丁目</t>
+  </si>
+  <si>
+    <t>大森西　２丁目</t>
+  </si>
+  <si>
+    <t>大森北　２丁目</t>
+  </si>
+  <si>
+    <t>大森本町２丁目</t>
+  </si>
+  <si>
+    <t>平和島　２丁目</t>
+  </si>
+  <si>
+    <t>昭和島　２丁目</t>
+  </si>
+  <si>
+    <t>山　王　２丁目</t>
+  </si>
+  <si>
+    <t>東馬込　２丁目</t>
+  </si>
+  <si>
+    <t>南馬込　２丁目</t>
+  </si>
+  <si>
+    <t>中馬込　２丁目</t>
+  </si>
+  <si>
+    <t>西馬込　２丁目</t>
+  </si>
+  <si>
+    <t>北馬込　２丁目</t>
+  </si>
+  <si>
+    <t>中　央　２丁目</t>
+  </si>
+  <si>
+    <t>池　上　２丁目</t>
+  </si>
+  <si>
+    <t>京浜島　２丁目</t>
+  </si>
+  <si>
+    <t>東　海　２丁目</t>
+  </si>
+  <si>
+    <t>城南島　２丁目</t>
+  </si>
+  <si>
+    <t>田園調布２丁目</t>
+  </si>
+  <si>
+    <t>鵜の木　２丁目</t>
+  </si>
+  <si>
+    <t>千　鳥　２丁目</t>
+  </si>
+  <si>
+    <t>南久が原２丁目</t>
+  </si>
+  <si>
+    <t>久が原　２丁目</t>
+  </si>
+  <si>
+    <t>南千束　２丁目</t>
+  </si>
+  <si>
+    <t>北千束　２丁目</t>
+  </si>
+  <si>
+    <t>石川町　２丁目</t>
+  </si>
+  <si>
+    <t>仲池上　２丁目</t>
+  </si>
+  <si>
+    <t>東雪谷　２丁目</t>
+  </si>
+  <si>
+    <t>南雪谷　２丁目</t>
+  </si>
+  <si>
+    <t>上池台　２丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　２丁目</t>
+  </si>
+  <si>
+    <t>西糀谷　２丁目</t>
+  </si>
+  <si>
+    <t>北糀谷　２丁目</t>
+  </si>
+  <si>
+    <t>羽　田　２丁目</t>
+  </si>
+  <si>
+    <t>本羽田　２丁目</t>
+  </si>
+  <si>
+    <t>羽田空港２丁目</t>
+  </si>
+  <si>
+    <t>萩　中　２丁目</t>
+  </si>
+  <si>
+    <t>東六郷　２丁目</t>
+  </si>
+  <si>
+    <t>西六郷　２丁目</t>
+  </si>
+  <si>
+    <t>南六郷　２丁目</t>
+  </si>
+  <si>
+    <t>仲六郷　２丁目</t>
+  </si>
+  <si>
+    <t>下丸子　２丁目</t>
+  </si>
+  <si>
+    <t>矢　口　２丁目</t>
+  </si>
+  <si>
+    <t>東矢口　２丁目</t>
+  </si>
+  <si>
+    <t>多摩川　２丁目</t>
+  </si>
+  <si>
+    <t>東蒲田　２丁目</t>
+  </si>
+  <si>
+    <t>南蒲田　２丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　２丁目</t>
+  </si>
+  <si>
+    <t>蒲　田　２丁目</t>
+  </si>
+  <si>
+    <t>蒲田本町２丁目</t>
+  </si>
+  <si>
+    <t>新蒲田　２丁目</t>
+  </si>
+  <si>
+    <t>令和島　２丁目</t>
+  </si>
+  <si>
+    <t>大森東　３丁目</t>
+  </si>
+  <si>
+    <t>大森南　３丁目</t>
+  </si>
+  <si>
+    <t>大森中　３丁目</t>
+  </si>
+  <si>
+    <t>大森西　３丁目</t>
+  </si>
+  <si>
+    <t>大森北　３丁目</t>
+  </si>
+  <si>
+    <t>平和島　３丁目</t>
+  </si>
+  <si>
+    <t>山　王　３丁目</t>
+  </si>
+  <si>
+    <t>南馬込　３丁目</t>
+  </si>
+  <si>
+    <t>中馬込　３丁目</t>
+  </si>
+  <si>
+    <t>中　央　３丁目</t>
+  </si>
+  <si>
+    <t>池　上　３丁目</t>
+  </si>
+  <si>
+    <t>京浜島　３丁目</t>
+  </si>
+  <si>
+    <t>東　海　３丁目</t>
+  </si>
+  <si>
+    <t>城南島　３丁目</t>
+  </si>
+  <si>
+    <t>田園調布３丁目</t>
+  </si>
+  <si>
+    <t>鵜の木　３丁目</t>
+  </si>
+  <si>
+    <t>千　鳥　３丁目</t>
+  </si>
+  <si>
+    <t>久が原　３丁目</t>
+  </si>
+  <si>
+    <t>南千束　３丁目</t>
+  </si>
+  <si>
+    <t>北千束　３丁目</t>
+  </si>
+  <si>
+    <t>東雪谷　３丁目</t>
+  </si>
+  <si>
+    <t>南雪谷　３丁目</t>
+  </si>
+  <si>
+    <t>上池台　３丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　３丁目</t>
+  </si>
+  <si>
+    <t>西糀谷　３丁目</t>
+  </si>
+  <si>
+    <t>羽　田　３丁目</t>
+  </si>
+  <si>
+    <t>本羽田　３丁目</t>
+  </si>
+  <si>
+    <t>羽田空港３丁目</t>
+  </si>
+  <si>
+    <t>萩　中　３丁目</t>
+  </si>
+  <si>
+    <t>東六郷　３丁目</t>
+  </si>
+  <si>
+    <t>西六郷　３丁目</t>
+  </si>
+  <si>
+    <t>南六郷　３丁目</t>
+  </si>
+  <si>
+    <t>仲六郷　３丁目</t>
+  </si>
+  <si>
+    <t>下丸子　３丁目</t>
+  </si>
+  <si>
+    <t>矢　口　３丁目</t>
+  </si>
+  <si>
+    <t>東矢口　３丁目</t>
+  </si>
+  <si>
+    <t>南蒲田　３丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　３丁目</t>
+  </si>
+  <si>
+    <t>蒲　田　３丁目</t>
+  </si>
+  <si>
+    <t>新蒲田　３丁目</t>
+  </si>
+  <si>
+    <t>大森東　４丁目</t>
+  </si>
+  <si>
+    <t>大森南　４丁目</t>
+  </si>
+  <si>
+    <t>大森西　４丁目</t>
+  </si>
+  <si>
+    <t>大森北　４丁目</t>
+  </si>
+  <si>
+    <t>平和島　４丁目</t>
+  </si>
+  <si>
+    <t>山　王　４丁目</t>
+  </si>
+  <si>
+    <t>南馬込　４丁目</t>
+  </si>
+  <si>
+    <t>中　央　４丁目</t>
+  </si>
+  <si>
+    <t>池　上　４丁目</t>
+  </si>
+  <si>
+    <t>東　海　４丁目</t>
+  </si>
+  <si>
+    <t>城南島　４丁目</t>
+  </si>
+  <si>
+    <t>田園調布４丁目</t>
+  </si>
+  <si>
+    <t>久が原　４丁目</t>
+  </si>
+  <si>
+    <t>東雪谷　４丁目</t>
+  </si>
+  <si>
+    <t>南雪谷　４丁目</t>
+  </si>
+  <si>
+    <t>上池台　４丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　４丁目</t>
+  </si>
+  <si>
+    <t>西糀谷　４丁目</t>
+  </si>
+  <si>
+    <t>羽　田　４丁目</t>
+  </si>
+  <si>
+    <t>西六郷　４丁目</t>
+  </si>
+  <si>
+    <t>仲六郷　４丁目</t>
+  </si>
+  <si>
+    <t>下丸子　４丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　４丁目</t>
+  </si>
+  <si>
+    <t>蒲　田　４丁目</t>
+  </si>
+  <si>
+    <t>大森東　５丁目</t>
+  </si>
+  <si>
+    <t>大森南　５丁目</t>
+  </si>
+  <si>
+    <t>大森西　５丁目</t>
+  </si>
+  <si>
+    <t>大森北　５丁目</t>
+  </si>
+  <si>
+    <t>平和島　５丁目</t>
+  </si>
+  <si>
+    <t>南馬込　５丁目</t>
+  </si>
+  <si>
+    <t>中　央　５丁目</t>
+  </si>
+  <si>
+    <t>池　上　５丁目</t>
+  </si>
+  <si>
+    <t>東　海　５丁目</t>
+  </si>
+  <si>
+    <t>城南島　５丁目</t>
+  </si>
+  <si>
+    <t>田園調布５丁目</t>
+  </si>
+  <si>
+    <t>久が原　５丁目</t>
+  </si>
+  <si>
+    <t>東雪谷　５丁目</t>
+  </si>
+  <si>
+    <t>南雪谷　５丁目</t>
+  </si>
+  <si>
+    <t>上池台　５丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　５丁目</t>
+  </si>
+  <si>
+    <t>羽　田　５丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　５丁目</t>
+  </si>
+  <si>
+    <t>蒲　田　５丁目</t>
+  </si>
+  <si>
+    <t>大森西　６丁目</t>
+  </si>
+  <si>
+    <t>大森北　６丁目</t>
+  </si>
+  <si>
+    <t>平和島　６丁目</t>
+  </si>
+  <si>
+    <t>南馬込　６丁目</t>
+  </si>
+  <si>
+    <t>中　央　６丁目</t>
+  </si>
+  <si>
+    <t>池　上　６丁目</t>
+  </si>
+  <si>
+    <t>東　海　６丁目</t>
+  </si>
+  <si>
+    <t>城南島　６丁目</t>
+  </si>
+  <si>
+    <t>久が原　６丁目</t>
+  </si>
+  <si>
+    <t>東糀谷　６丁目</t>
+  </si>
+  <si>
+    <t>羽　田　６丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　６丁目</t>
+  </si>
+  <si>
+    <t>大森西　７丁目</t>
+  </si>
+  <si>
+    <t>中　央　７丁目</t>
+  </si>
+  <si>
+    <t>池　上　７丁目</t>
+  </si>
+  <si>
+    <t>城南島　７丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　７丁目</t>
+  </si>
+  <si>
+    <t>中　央　８丁目</t>
+  </si>
+  <si>
+    <t>池　上　８丁目</t>
+  </si>
+  <si>
+    <t>西蒲田　８丁目</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:HK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1130,661 +1130,661 @@
   <sheetData>
     <row r="1" spans="1:219" s="3" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BV1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CW1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="DC1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="DE1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="DK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="DS1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="EE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="EP1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="ET1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="EV1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FA1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FB1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="FC1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="FE1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="FF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="FH1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FI1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="FK1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="FL1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="FO1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FS1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="FV1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="FY1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="GC1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GD1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="GG1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GI1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="GJ1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="GL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="GN1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="GQ1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="GS1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="GT1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="GU1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="GV1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="GW1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="GX1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="GY1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="HA1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="HB1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HC1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="HD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HF1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="HH1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="HI1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HJ1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:219">

--- a/data/Ward_Age/大田区2022年1月_rev.xlsx
+++ b/data/Ward_Age/大田区2022年1月_rev.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA840EBF-CC63-3649-A138-2F51B2F149F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F9574-931C-EA44-9FFA-5707FE675773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="47360" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R04.01大田全域" sheetId="13" r:id="rId1"/>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>田園調布本町</t>
-  </si>
-  <si>
-    <t>雪谷大町</t>
   </si>
   <si>
     <t>羽田旭町</t>
@@ -676,6 +673,13 @@
   <si>
     <t>西蒲田　８丁目</t>
   </si>
+  <si>
+    <t>雪谷大塚町</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">オオツカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1117,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:HK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CV1" sqref="CV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1130,271 +1134,271 @@
   <sheetData>
     <row r="1" spans="1:219" s="3" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BN1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK1" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="CL1" s="2" t="s">
         <v>1</v>
@@ -1412,379 +1416,379 @@
         <v>5</v>
       </c>
       <c r="CQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="DH1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EC1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="ED1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="EE1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="EF1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="EG1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EI1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="EJ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="EK1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="EL1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EM1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EN1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="EO1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="EQ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="ER1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="ES1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="ET1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="EU1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="EV1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="CW1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="DX1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="DY1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="DZ1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="EB1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EC1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="ED1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EE1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="EF1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="EG1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EH1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EI1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="EK1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="EL1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="EM1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="EX1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="EY1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EZ1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FA1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="EP1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="EQ1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="ER1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="ES1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="ET1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="EU1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="EV1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="FD1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="FE1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="FF1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="FG1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="FH1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="FI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="FJ1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="FK1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="FQ1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="FV1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="FW1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="FY1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="GA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="GC1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GD1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="GE1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="GG1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="GH1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="GI1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="GJ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="GK1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="GL1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="GM1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="GN1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="GO1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="GP1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="GQ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="GR1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="GS1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="GT1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GU1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="GV1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="GW1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GX1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="GY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="GZ1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="HA1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="HB1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="HC1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="HD1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="HE1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="HF1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="HG1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HH1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="HI1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="EW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="EX1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="EY1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="EZ1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="FA1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="FB1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="FC1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="FD1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="FE1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="FF1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="FG1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="FH1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="FJ1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="FN1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="FO1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="FS1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="FX1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="FY1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="FZ1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="GA1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="GB1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="GC1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="GD1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="GE1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="GF1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="GG1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="GH1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="GI1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="GJ1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="GK1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="GL1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="GM1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="GN1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="GO1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="GP1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="GQ1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="GR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="GS1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="GT1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="GU1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="GV1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="GW1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="GX1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="GY1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="GZ1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="HA1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="HB1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="HC1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="HD1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="HE1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="HH1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="HI1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HJ1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="HK1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:219">
